--- a/data/long_bre/P16-Estudios-long_bre.xlsx
+++ b/data/long_bre/P16-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-14,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,27%</t>
+          <t>-28,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-54,77%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 6,0</t>
+          <t>-8,9; 14,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 9,93</t>
+          <t>-30,73; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -8,97</t>
+          <t>-22,67; -6,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 30,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 57,51</t>
+          <t>-42,21; 133,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,94; -40,07</t>
+          <t>-67,25; 28,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-70,77; -31,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 15,51</t>
+          <t>-19,9; 9,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 14,11</t>
+          <t>-4,48; 25,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 19,6</t>
+          <t>-0,41; 19,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 37,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 33,56</t>
+          <t>-28,11; 17,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 44,1</t>
+          <t>-7,94; 70,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 41,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 11,47</t>
+          <t>-11,08; 13,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 12,31</t>
+          <t>-10,86; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 19,8</t>
+          <t>-4,48; 10,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 63,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 69,05</t>
+          <t>-40,5; 90,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 131,19</t>
+          <t>-36,21; 67,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 72,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 10,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 66,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 42,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>-31,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,1</t>
+          <t>-8,47; 11,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 9,34</t>
+          <t>-14,9; -0,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,7</t>
+          <t>-4,28; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 18,8</t>
+          <t>-32,22; 74,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 8,86</t>
+          <t>-54,19; -0,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 44,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,7</t>
+          <t>-13,41; 5,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 11,68</t>
+          <t>-7,35; 10,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,36</t>
+          <t>-8,94; 5,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 69,54</t>
+          <t>-21,7; 11,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 35,09</t>
+          <t>-11,97; 20,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,65; 9,33</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,58</t>
+          <t>-6,62; 9,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,23</t>
+          <t>-3,48; 12,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 10,65</t>
+          <t>-5,23; 7,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 62,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,76; -5,08</t>
+          <t>-24,1; 48,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 88,81</t>
+          <t>-12,92; 74,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 34,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 8,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 14,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 19,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,15; -0,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>-24,14%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,55</t>
+          <t>-5,15; 10,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 13,23</t>
+          <t>-11,33; 2,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,82</t>
+          <t>-2,14; 10,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 63,83</t>
+          <t>-21,81; 66,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 45,52</t>
+          <t>-47,63; 13,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 84,47</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-4,14%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>-8,9; 10,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -1,17</t>
+          <t>-11,24; 6,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,59</t>
+          <t>-15,1; -0,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -5,18</t>
+          <t>-13,89; 20,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 9,44</t>
+          <t>-18,36; 12,91</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,52; -1,64</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>-18,35%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>-13,02; 3,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,4</t>
+          <t>-1,47; 14,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,58</t>
+          <t>-2,62; 9,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 12,66</t>
+          <t>-46,65; 22,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 6,77</t>
+          <t>-4,94; 78,03</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 49,1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,78; 46,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 33,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-8,7</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-29,7%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 8,4</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-18,54; 1,89</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 49,32</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-54,2; 7,97</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 7,5</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 14,35</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,15; 15,44</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; 33,05</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 4,42</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 15,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 18,3</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 99,83</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-29,07%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 7,15</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; -2,55</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 2,04</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 41,66</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; -11,51</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 12,13</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 3,55</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 7,12</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 3,79</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 6,76</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 14,18</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 6,8</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 2,99</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 9,84</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 5,96</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 13,73</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 48,38</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 28,01</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
